--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-organization-insuranceorganizationcategory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="153">
   <si>
     <t>Property</t>
   </si>
@@ -351,36 +351,17 @@
     <t>拡張値の値 - データ型の制約付きセットの1つでなければなりません（リストの[拡張性]（拡張性]（拡張性。html）を参照）。 / Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicalFeeScoreType_VS</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>Extension.value[x]:valueCoding</t>
-  </si>
-  <si>
-    <t>valueCoding</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicalFeeScoreType_VS</t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valueCoding.id</t>
-  </si>
-  <si>
     <t>Extension.value[x].id</t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valueCoding.extension</t>
   </si>
   <si>
     <t>Extension.value[x].extension</t>
@@ -399,9 +380,6 @@
     <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t>Extension.value[x]:valueCoding.system</t>
-  </si>
-  <si>
     <t>Extension.value[x].system</t>
   </si>
   <si>
@@ -426,9 +404,6 @@
     <t>./codeSystem</t>
   </si>
   <si>
-    <t>Extension.value[x]:valueCoding.version</t>
-  </si>
-  <si>
     <t>Extension.value[x].version</t>
   </si>
   <si>
@@ -445,9 +420,6 @@
   </si>
   <si>
     <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valueCoding.code</t>
   </si>
   <si>
     <t>Extension.value[x].code</t>
@@ -472,9 +444,6 @@
     <t>./code</t>
   </si>
   <si>
-    <t>Extension.value[x]:valueCoding.display</t>
-  </si>
-  <si>
     <t>Extension.value[x].display</t>
   </si>
   <si>
@@ -491,9 +460,6 @@
   </si>
   <si>
     <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valueCoding.userSelected</t>
   </si>
   <si>
     <t>Extension.value[x].userSelected</t>
@@ -833,7 +799,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK14"/>
+  <dimension ref="A1:AK13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -842,7 +808,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.70703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="30.6796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="30.6796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1470,26 +1436,26 @@
         <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AC6" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>105</v>
@@ -1515,11 +1481,9 @@
         <v>112</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
         <v>77</v>
       </c>
@@ -1540,13 +1504,13 @@
         <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1573,11 +1537,13 @@
         <v>77</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Y7" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z7" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AA7" t="s" s="2">
         <v>77</v>
@@ -1595,7 +1561,7 @@
         <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>78</v>
@@ -1607,29 +1573,29 @@
         <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>77</v>
@@ -1641,15 +1607,17 @@
         <v>77</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="N8" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
         <v>77</v>
@@ -1686,31 +1654,31 @@
         <v>77</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AD8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>90</v>
@@ -1721,18 +1689,18 @@
         <v>118</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>77</v>
@@ -1741,21 +1709,23 @@
         <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="N9" t="s" s="2">
+      <c r="O9" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
       </c>
@@ -1791,42 +1761,42 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>90</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1846,10 +1816,10 @@
         <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>127</v>
@@ -1860,9 +1830,7 @@
       <c r="N10" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="O10" t="s" s="2">
-        <v>130</v>
-      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>77</v>
       </c>
@@ -1910,7 +1878,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -1925,15 +1893,15 @@
         <v>111</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1953,21 +1921,21 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" s="2"/>
+      <c r="O11" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="N11" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2015,7 +1983,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -2030,15 +1998,15 @@
         <v>111</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2058,20 +2026,20 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>77</v>
@@ -2120,7 +2088,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -2135,15 +2103,15 @@
         <v>111</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2163,20 +2131,22 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O13" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>77</v>
@@ -2225,7 +2195,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -2240,114 +2210,7 @@
         <v>111</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="P14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
